--- a/my-app/src/main/resources/Interviews.xlsx
+++ b/my-app/src/main/resources/Interviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\gitHome\LTC\my-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89915CF4-3EF7-4B48-8567-35F156638163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303797C-4B7C-49FF-9A12-88A3AB991B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Type3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>Company</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Render</t>
   </si>
   <si>
-    <t>Initial Call Scheduled</t>
-  </si>
-  <si>
     <t>UW</t>
   </si>
   <si>
@@ -190,48 +186,21 @@
     <t>他们有个data coding的东西，查一下是啥东西。</t>
   </si>
   <si>
-    <t>跟HR聊过了。要约面试。</t>
-  </si>
-  <si>
     <t>跟进一下</t>
   </si>
   <si>
-    <t>谈Offer</t>
-  </si>
-  <si>
     <t>已经拿到DeviceBook Offer，没必要再跟他们聊</t>
   </si>
   <si>
     <t>跟CEO聊过了，说是要跟我</t>
   </si>
   <si>
-    <t>跟HR聊过了，等约面试</t>
-  </si>
-  <si>
-    <t>约了第一个coding面试，09/27</t>
-  </si>
-  <si>
-    <t>说是开始那个组不感兴趣，在问别的组</t>
-  </si>
-  <si>
-    <t>回邮件</t>
-  </si>
-  <si>
     <t>跟Kaiyu问面经</t>
   </si>
   <si>
     <t>约好了首轮面试10/04</t>
   </si>
   <si>
-    <t>跟Recruiter约了电话</t>
-  </si>
-  <si>
-    <t>约面试</t>
-  </si>
-  <si>
-    <t>今天跟Hiring Manager聊了</t>
-  </si>
-  <si>
     <t>TuSimple</t>
   </si>
   <si>
@@ -239,12 +208,6 @@
   </si>
   <si>
     <t>自己动手申请</t>
-  </si>
-  <si>
-    <t>约了09/27 3:00pm - 3:45pm 跟CTO聊</t>
-  </si>
-  <si>
-    <t>跟Recruiter问清楚下周聊天的内容</t>
   </si>
   <si>
     <t>Previous experiences
@@ -255,12 +218,6 @@
     <t>Swiftly</t>
   </si>
   <si>
-    <t>跟Hiring Manager约了聊</t>
-  </si>
-  <si>
-    <t>跟Recruiter聊一下。问一下Wei, options离职处理，中间有没有交易机会等等</t>
-  </si>
-  <si>
     <t>TaxBit</t>
   </si>
   <si>
@@ -270,9 +227,6 @@
     <t>跟HR约了时间聊</t>
   </si>
   <si>
-    <t>跟HR发了时间，等回复</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -294,19 +248,91 @@
     <t>HR忽然联系说，面试取消，已经招到人</t>
   </si>
   <si>
-    <t>约了跟CTO聊</t>
-  </si>
-  <si>
     <t>约好了面试，10/03上午onsite</t>
   </si>
   <si>
     <t>研究下一亩三分地里的面经</t>
   </si>
   <si>
-    <t>跟Hiring manager聊过了</t>
-  </si>
-  <si>
     <t>跟进约面试</t>
+  </si>
+  <si>
+    <t>今天收到HR邮件，他们不打算move fwd</t>
+  </si>
+  <si>
+    <t>Initial Call Scheduled on 10/04 11am</t>
+  </si>
+  <si>
+    <t>跟HR提交了面试时间，等确认</t>
+  </si>
+  <si>
+    <t>Otter</t>
+  </si>
+  <si>
+    <t>收到HR邮件，尚未开始联系</t>
+  </si>
+  <si>
+    <t>跟HR约了10/06聊天</t>
+  </si>
+  <si>
+    <t>跟Hiring manager聊过了，问了HR后续步骤，等答复</t>
+  </si>
+  <si>
+    <t>已经签了offer，已经开始H1B的手续</t>
+  </si>
+  <si>
+    <t>回复不打算proceed</t>
+  </si>
+  <si>
+    <t>约好了第一轮面试，不清楚他们data coding是个啥，发了邮件询问</t>
+  </si>
+  <si>
+    <t>Hiring Manager刚入职4周，属于不hands on，纯吹牛的那种，明显他现在很需要招人</t>
+  </si>
+  <si>
+    <t>Wonder的CTO背景还是挺solid的，harvard本硕都是CS的，然后以前在FB做research，但是他们在美国现在只有10个engineer，在菲律宾却有60个</t>
+  </si>
+  <si>
+    <t>他们要面javascrip，我主动quit了</t>
+  </si>
+  <si>
+    <t>提供了面试时间，等他们答复</t>
+  </si>
+  <si>
+    <t>他们需要build k8 cluster from scratch的经验，所以不匹配</t>
+  </si>
+  <si>
+    <t>spotnana-technology</t>
+  </si>
+  <si>
+    <t>跟HR约了聊</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Klaviyo</t>
+  </si>
+  <si>
+    <t>carta</t>
+  </si>
+  <si>
+    <t>Virta Health</t>
+  </si>
+  <si>
+    <t>已回消息，等答复</t>
+  </si>
+  <si>
+    <t>10/07回邮件</t>
+  </si>
+  <si>
+    <t>跟director of engineering约了一个面试</t>
+  </si>
+  <si>
+    <t>约面试</t>
+  </si>
+  <si>
+    <t>第一轮过了，要约第二轮</t>
   </si>
 </sst>
 </file>
@@ -381,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,123 +733,128 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C4"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
@@ -839,50 +869,63 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A06BE5-CADE-407F-9907-F168D73730A7}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,24 +957,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -939,107 +982,139 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>29</v>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEC6FB0-19A2-4F7F-9918-8E2DF2BCE0F7}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,84 +1147,86 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
